--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="C2">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>8</v>

--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C3">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C3">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C3">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Broncos/Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C3">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="C3">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>7</v>
